--- a/back-end/excelSheets/service.xlsx
+++ b/back-end/excelSheets/service.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
   <si>
     <t xml:space="preserve">sl_no</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">professor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
 </sst>
 </file>
@@ -161,10 +164,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -197,7 +200,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>7</v>
@@ -220,7 +223,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
@@ -239,6 +242,420 @@
       </c>
       <c r="G3" s="3" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>42053</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>42868</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>200001</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>42054</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>42869</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>200002</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>42055</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>42870</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>200003</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>42056</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>42871</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>200004</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>42057</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>42872</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>200005</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>42058</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>42873</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>200006</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>42059</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>42874</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>200007</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>42060</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>42875</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>200008</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>42061</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>42876</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>200009</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>42062</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>42877</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>200010</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>42063</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>42878</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>200011</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>42879</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>200012</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>42065</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>42880</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>200013</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>42066</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>42881</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>200014</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>42067</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>42882</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>200015</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>42068</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>42883</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>200016</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>42069</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>42884</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>200017</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>42070</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>42885</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>200018</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
